--- a/Q2/q2.xlsx
+++ b/Q2/q2.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'totalCount': 1063}</t>
+          <t>{'totalCount': 16638}</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'totalCount': 4303}</t>
+          <t>{'totalCount': 1063}</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'totalCount': 1069}</t>
+          <t>{'totalCount': 280}</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'totalCount': 566}</t>
+          <t>{'totalCount': 1069}</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'totalCount': 8087}</t>
+          <t>{'totalCount': 566}</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'totalCount': 1847}</t>
+          <t>{'totalCount': 203}</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'totalCount': 14159}</t>
+          <t>{'totalCount': 8087}</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'totalCount': 190}</t>
+          <t>{'totalCount': 14159}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'totalCount': 7398}</t>
+          <t>{'totalCount': 190}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'totalCount': 375}</t>
+          <t>{'totalCount': 351}</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'totalCount': 2643}</t>
+          <t>{'totalCount': 375}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'totalCount': 23584}</t>
+          <t>{'totalCount': 2643}</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'totalCount': 266}</t>
+          <t>{'totalCount': 23596}</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'totalCount': 85}</t>
+          <t>{'totalCount': 266}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'totalCount': 1519}</t>
+          <t>{'totalCount': 85}</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'totalCount': 1811}</t>
+          <t>{'totalCount': 1519}</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'totalCount': 9}</t>
+          <t>{'totalCount': 1811}</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'totalCount': 777}</t>
+          <t>{'totalCount': 8185}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'totalCount': 587}</t>
+          <t>{'totalCount': 9}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'totalCount': 526}</t>
+          <t>{'totalCount': 777}</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'totalCount': 12}</t>
+          <t>{'totalCount': 587}</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'totalCount': 204}</t>
+          <t>{'totalCount': 526}</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'totalCount': 1551}</t>
+          <t>{'totalCount': 12}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'totalCount': 303}</t>
+          <t>{'totalCount': 203}</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'totalCount': 203}</t>
+          <t>{'totalCount': 626}</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'totalCount': 626}</t>
+          <t>{'totalCount': 438}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'totalCount': 438}</t>
+          <t>{'totalCount': 0}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'totalCount': 13995}</t>
+          <t>{'totalCount': 1915}</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'totalCount': 0}</t>
+          <t>{'totalCount': 750}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'totalCount': 1915}</t>
+          <t>{'totalCount': 462}</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'totalCount': 750}</t>
+          <t>{'totalCount': 269}</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'totalCount': 269}</t>
+          <t>{'totalCount': 3712}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'totalCount': 3703}</t>
+          <t>{'totalCount': 50586}</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'totalCount': 50582}</t>
+          <t>{'totalCount': 8319}</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'totalCount': 8312}</t>
+          <t>{'totalCount': 6017}</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{'totalCount': 2496}</t>
+          <t>{'totalCount': 9403}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'totalCount': 6011}</t>
+          <t>{'totalCount': 8018}</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'totalCount': 3042}</t>
+          <t>{'totalCount': 1716}</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'totalCount': 9401}</t>
+          <t>{'totalCount': 2193}</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'totalCount': 8017}</t>
+          <t>{'totalCount': 12740}</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'totalCount': 11464}</t>
+          <t>{'totalCount': 2625}</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'totalCount': 1716}</t>
+          <t>{'totalCount': 707}</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'totalCount': 2187}</t>
+          <t>{'totalCount': 313}</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'totalCount': 12738}</t>
+          <t>{'totalCount': 304}</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'totalCount': 2624}</t>
+          <t>{'totalCount': 842}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'totalCount': 707}</t>
+          <t>{'totalCount': 2213}</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{'totalCount': 303}</t>
+          <t>{'totalCount': 63}</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'totalCount': 842}</t>
+          <t>{'totalCount': 6274}</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'totalCount': 2213}</t>
+          <t>{'totalCount': 3015}</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'totalCount': 6273}</t>
+          <t>{'totalCount': 466}</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{'totalCount': 3015}</t>
+          <t>{'totalCount': 168}</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'totalCount': 1396}</t>
+          <t>{'totalCount': 146}</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'totalCount': 186}</t>
+          <t>{'totalCount': 3265}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'totalCount': 466}</t>
+          <t>{'totalCount': 217}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{'totalCount': 3265}</t>
+          <t>{'totalCount': 38484}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'totalCount': 146}</t>
+          <t>{'totalCount': 174}</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'totalCount': 38476}</t>
+          <t>{'totalCount': 7183}</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'totalCount': 174}</t>
+          <t>{'totalCount': 17088}</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'totalCount': 7181}</t>
+          <t>{'totalCount': 116}</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'totalCount': 17088}</t>
+          <t>{'totalCount': 11277}</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{'totalCount': 11276}</t>
+          <t>{'totalCount': 45}</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{'totalCount': 44}</t>
+          <t>{'totalCount': 4106}</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{'totalCount': 10385}</t>
+          <t>{'totalCount': 41}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{'totalCount': 41}</t>
+          <t>{'totalCount': 788}</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'totalCount': 100}</t>
+          <t>{'totalCount': 36081}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{'totalCount': 788}</t>
+          <t>{'totalCount': 355}</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{'totalCount': 36077}</t>
+          <t>{'totalCount': 5598}</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{'totalCount': 46829}</t>
+          <t>{'totalCount': 169}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{'totalCount': 355}</t>
+          <t>{'totalCount': 1298}</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{'totalCount': 5584}</t>
+          <t>{'totalCount': 4899}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{'totalCount': 169}</t>
+          <t>{'totalCount': 1492}</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{'totalCount': 1298}</t>
+          <t>{'totalCount': 1573}</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{'totalCount': 4898}</t>
+          <t>{'totalCount': 3919}</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{'totalCount': 1492}</t>
+          <t>{'totalCount': 42}</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{'totalCount': 3919}</t>
+          <t>{'totalCount': 2593}</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{'totalCount': 2593}</t>
+          <t>{'totalCount': 0}</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{'totalCount': 0}</t>
+          <t>{'totalCount': 233}</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{'totalCount': 233}</t>
+          <t>{'totalCount': 2291}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{'totalCount': 2291}</t>
+          <t>{'totalCount': 543}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{'totalCount': 543}</t>
+          <t>{'totalCount': 790}</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{'totalCount': 790}</t>
+          <t>{'totalCount': 49}</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{'totalCount': 649}</t>
+          <t>{'totalCount': 20}</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{'totalCount': 49}</t>
+          <t>{'totalCount': 4981}</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{'totalCount': 407}</t>
+          <t>{'totalCount': 2562}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{'totalCount': 20}</t>
+          <t>{'totalCount': 278}</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{'totalCount': 4977}</t>
+          <t>{'totalCount': 1295}</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{'totalCount': 2562}</t>
+          <t>{'totalCount': 1755}</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{'totalCount': 278}</t>
+          <t>{'totalCount': 359}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{'totalCount': 1294}</t>
+          <t>{'totalCount': 396}</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{'totalCount': 1754}</t>
+          <t>{'totalCount': 3440}</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{'totalCount': 359}</t>
+          <t>{'totalCount': 16178}</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>{'totalCount': 2552}</t>
+          <t>{'totalCount': 14}</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>{'totalCount': 718}</t>
+          <t>{'totalCount': 574}</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>{'totalCount': 3439}</t>
+          <t>{'totalCount': 573}</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>{'totalCount': 302}</t>
+          <t>{'totalCount': 950}</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>{'totalCount': 16172}</t>
+          <t>{'totalCount': 1}</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>{'totalCount': 14}</t>
+          <t>{'totalCount': 6360}</t>
         </is>
       </c>
     </row>
